--- a/PLANTILLA_PROVEEDOR_2025.xlsx
+++ b/PLANTILLA_PROVEEDOR_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,7 @@
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="30" customWidth="1" min="15" max="15"/>
+    <col width="50" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -526,6 +527,11 @@
           <t>MEDIDA MÁXIMA DE GRABACIÓN</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>URL_IMAGEN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -603,6 +609,11 @@
           <t>25x30cm</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>https://ejemplo.com/imagenes/camiseta-basica-001.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -680,6 +691,11 @@
           <t>12x8cm (bordado) / 25x30cm (serigrafía)</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>https://ejemplo.com/imagenes/polo-pique-002.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -757,6 +773,11 @@
           <t>20x8cm</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>https://ejemplo.com/imagenes/taza-ceramica-003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -834,6 +855,11 @@
           <t>30x25cm</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>https://ejemplo.com/imagenes/bolsa-algodon-004.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -909,6 +935,11 @@
       <c r="O6" t="inlineStr">
         <is>
           <t>10x5cm</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>https://ejemplo.com/imagenes/gorra-5paneles-005.jpg</t>
         </is>
       </c>
     </row>
